--- a/artfynd/A 17617-2019.xlsx
+++ b/artfynd/A 17617-2019.xlsx
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>407095.5816917641</v>
+        <v>407096</v>
       </c>
       <c r="R3" t="n">
-        <v>6702657.265808316</v>
+        <v>6702657</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,19 +885,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
